--- a/biology/Biologie cellulaire et moléculaire/Comité_de_surveillance_biologique_du_territoire/Comité_de_surveillance_biologique_du_territoire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Comité_de_surveillance_biologique_du_territoire/Comité_de_surveillance_biologique_du_territoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « Comité de surveillance biologique du territoire » (ou « CSBT ») est en France un organisme chargé d'évaluer et suivre l'état sanitaire et  « phytosanitaire » des végétaux (notamment dans l'agriculture et la sylviculture). Il est aussi chargé d'alerter quant à l'apparition éventuelle d'« effets non intentionnels des pratiques agricoles » sur l’environnement et les écosystèmes (dont cultures d’OGM). 
 Il contribue ainsi à l’étude des effets des applications de pesticides, d'adjuvants et d'engrais et au suivi ou à la mise en évidence d'apparition ou dissémination d'organismes jugés nuisibles. 
 La surveillance du territoire est basée sur :
-des plans de surveillance, qui doivent détecter les organismes (pathogènes, vertébrés (rat musqué, certains campagnols notamment), invertébrés, ou nouvelles espèces envahissantes introduites telle que la chrysomèle du maïs, ou le capricorne asiatique[1]) dits « nuisibles » aux végétaux.Ils enclenchent le cas échéant des actions de gestion ;
+des plans de surveillance, qui doivent détecter les organismes (pathogènes, vertébrés (rat musqué, certains campagnols notamment), invertébrés, ou nouvelles espèces envahissantes introduites telle que la chrysomèle du maïs, ou le capricorne asiatique) dits « nuisibles » aux végétaux.Ils enclenchent le cas échéant des actions de gestion ;
 des plans de contrôle vérifient que les populations « nuisibles » sont maintenues à un niveau acceptable.
 La surveillance du territoire est une des bases de la procédure de « passeport phytosanitaire européen », attribué aux végétaux mis en circulation.
 </t>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Aspects juridiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est défini par décret[2]. Le président n’a été nommé qu’en mai 2010.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est défini par décret. Le président n’a été nommé qu’en mai 2010.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Acteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont les agents chargés de la protection des végétaux ou des agents travaillant sous leur contrôle. 
-Président : Robert Mestre a été nommé président (durée de 5 ans renouvelable) par décret[3].
+Président : Robert Mestre a été nommé président (durée de 5 ans renouvelable) par décret.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Résultats, publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le comité publie son travail :
 dans le rapport annuel du Gouvernement à l'Assemblée nationale et au Sénat.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le code rural les définit dans son article L. 251-1
 Le CSBT :
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,9 +669,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’article D. 251-1-3 du code rural, le CSBT stipule que ce comité doit être composé de 20 membres bénévoles, nommés pour 5 ans renouvelables, ayant des compétences scientifiques et techniques dans le  domaine, choisis sur la base d’un appel à candidatures[4], dont au moins :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’article D. 251-1-3 du code rural, le CSBT stipule que ce comité doit être composé de 20 membres bénévoles, nommés pour 5 ans renouvelables, ayant des compétences scientifiques et techniques dans le  domaine, choisis sur la base d’un appel à candidatures, dont au moins :
 ) 2 personnalités qualifiées dans le domaine de la biologie animale ;
 ) 2 personnalités qualifiées dans le domaine de la biologie végétale ;
 ) 2 personnalités qualifiées dans le domaine de la phytopathologie ;
@@ -659,7 +681,7 @@
 ) 2 personnalités qualifiées dans le domaine de la protection de l’environnement et des végétaux, notamment de la biodiversité ;
 ) 2 personnalités qualifiées dans le domaine de la génétique, notamment du génie génétique ;
 ) 1 personnalité qualifiée dans le domaine de la génétique des populations.
-Pour limiter le risque de conflit d'intérêts, les candidats doivent avoir fourni une déclaration d’intérêt [5].  Une commission de sélection propose un président et choisit les membres (et un suppléant par personne). Elle comprend un représentant du Muséum national d'histoire naturelle, de l’INRA , du CNRS.  Un vice-président est élu à la majorité absolue.
+Pour limiter le risque de conflit d'intérêts, les candidats doivent avoir fourni une déclaration d’intérêt .  Une commission de sélection propose un président et choisit les membres (et un suppléant par personne). Elle comprend un représentant du Muséum national d'histoire naturelle, de l’INRA , du CNRS.  Un vice-président est élu à la majorité absolue.
 </t>
         </is>
       </c>
@@ -670,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_de_surveillance_biologique_du_territoire</t>
+          <t>Comité_de_surveillance_biologique_du_territoire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,13 +710,15 @@
           <t>Mode de travail</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cadré par le règlement intérieur  produit et voté (à la majorité des 2/3 des membres)par le comité. Le comité décide lui-même des modalités de retranscription des séances permettant tant que possible un avis pertinent tout en respectant la confidentialité de certaines informations.
 Des groupes de travail analysent et étudient les sujets proposés par le président. 
 Le secrétariat est assumé par le ministère chargé de l’agriculture. 
 Quorum ; il est atteint quand au moins 50 % des membres  sont réunis. LE CSBT vote à la majorité des voix des membres présents ou représentés, avec voix prépondérante du président s’il y a partage égal des voix. 
-La confidentialité des données soumises au comité et à son secrétariat est demandée quand elles sont soumises à propriété intellectuelle et industrielle. Les membres sont aussi tenus au secret Professionnel[6].
+La confidentialité des données soumises au comité et à son secrétariat est demandée quand elles sont soumises à propriété intellectuelle et industrielle. Les membres sont aussi tenus au secret Professionnel.
 </t>
         </is>
       </c>
